--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01581778927454889</v>
+        <v>-0.2086161574976735</v>
       </c>
       <c r="C2">
-        <v>0.1769645570152142</v>
+        <v>0.4831534245497861</v>
       </c>
       <c r="D2">
-        <v>0.06154514893109243</v>
+        <v>0.3849075325051517</v>
       </c>
       <c r="E2">
-        <v>0.2480829476830127</v>
+        <v>0.6204091653942192</v>
       </c>
       <c r="F2">
-        <v>0.2569240011290105</v>
+        <v>0.6063393083278098</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02195526675411769</v>
+        <v>-0.130351666236421</v>
       </c>
       <c r="C3">
-        <v>0.2163586422281868</v>
+        <v>0.4021978896510516</v>
       </c>
       <c r="D3">
-        <v>0.08385254728376079</v>
+        <v>0.2468797842177299</v>
       </c>
       <c r="E3">
-        <v>0.2895730430888911</v>
+        <v>0.4968699872378386</v>
       </c>
       <c r="F3">
-        <v>0.3005296263947633</v>
+        <v>0.4990446669431289</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0193087473139601</v>
+        <v>-0.172168584493037</v>
       </c>
       <c r="C4">
-        <v>0.2049953786970008</v>
+        <v>0.4469611009306131</v>
       </c>
       <c r="D4">
-        <v>0.1019947020594539</v>
+        <v>0.3068024783553724</v>
       </c>
       <c r="E4">
-        <v>0.3193660940980647</v>
+        <v>0.5538975341661782</v>
       </c>
       <c r="F4">
-        <v>0.3329567938172152</v>
+        <v>0.5498698591839245</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.07226700651545802</v>
+        <v>-0.2012538732070167</v>
       </c>
       <c r="C5">
-        <v>0.1675871387573901</v>
+        <v>0.3706701098662007</v>
       </c>
       <c r="D5">
-        <v>0.06404507904842406</v>
+        <v>0.2450590527804206</v>
       </c>
       <c r="E5">
-        <v>0.2530712924225584</v>
+        <v>0.4950343955528955</v>
       </c>
       <c r="F5">
-        <v>0.2543714109319102</v>
+        <v>0.4743537966850842</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1025096706313666</v>
+        <v>-0.1962591978527491</v>
       </c>
       <c r="C6">
-        <v>0.165819033310199</v>
+        <v>0.5005154228308657</v>
       </c>
       <c r="D6">
-        <v>0.06384594992382764</v>
+        <v>0.3060069273344895</v>
       </c>
       <c r="E6">
-        <v>0.252677561179911</v>
+        <v>0.5531789288598126</v>
       </c>
       <c r="F6">
-        <v>0.2434422526798966</v>
+        <v>0.5451699577936784</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0779752674428191</v>
+        <v>-0.2173851562319015</v>
       </c>
       <c r="C7">
-        <v>0.1662285481384349</v>
+        <v>0.5193912335752287</v>
       </c>
       <c r="D7">
-        <v>0.0542886581417678</v>
+        <v>0.3417199285034996</v>
       </c>
       <c r="E7">
-        <v>0.2329992663974885</v>
+        <v>0.5845681555674236</v>
       </c>
       <c r="F7">
-        <v>0.2371566327215414</v>
+        <v>0.575561964646486</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.142985672175615</v>
+        <v>-0.1465976859772833</v>
       </c>
       <c r="C8">
-        <v>0.2930634811140942</v>
+        <v>0.6786390806747216</v>
       </c>
       <c r="D8">
-        <v>0.116795020993853</v>
+        <v>0.5659560571029979</v>
       </c>
       <c r="E8">
-        <v>0.3417528653776776</v>
+        <v>0.7523005098383211</v>
       </c>
       <c r="F8">
-        <v>0.3584226900301571</v>
+        <v>0.8083057655880753</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.5632321039025169</v>
+        <v>-0.7439835285872217</v>
       </c>
       <c r="C9">
-        <v>0.5632321039025169</v>
+        <v>0.7439835285872217</v>
       </c>
       <c r="D9">
-        <v>0.3172304028664556</v>
+        <v>0.7169109747095641</v>
       </c>
       <c r="E9">
-        <v>0.5632321039025169</v>
+        <v>0.8467059552817401</v>
+      </c>
+      <c r="F9">
+        <v>0.4950749699295109</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.8456720827280808</v>
+      </c>
+      <c r="C10">
+        <v>0.8456720827280808</v>
+      </c>
+      <c r="D10">
+        <v>0.7151612715056499</v>
+      </c>
+      <c r="E10">
+        <v>0.8456720827280808</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2086161574976735</v>
+        <v>0.01581778927454889</v>
       </c>
       <c r="C2">
-        <v>0.4831534245497861</v>
+        <v>0.1769645570152142</v>
       </c>
       <c r="D2">
-        <v>0.3849075325051517</v>
+        <v>0.06154514893109243</v>
       </c>
       <c r="E2">
-        <v>0.6204091653942192</v>
+        <v>0.2480829476830127</v>
       </c>
       <c r="F2">
-        <v>0.6063393083278098</v>
+        <v>0.2569240011290105</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.130351666236421</v>
+        <v>0.02195526675411769</v>
       </c>
       <c r="C3">
-        <v>0.4021978896510516</v>
+        <v>0.2163586422281868</v>
       </c>
       <c r="D3">
-        <v>0.2468797842177299</v>
+        <v>0.08385254728376079</v>
       </c>
       <c r="E3">
-        <v>0.4968699872378386</v>
+        <v>0.2895730430888911</v>
       </c>
       <c r="F3">
-        <v>0.4990446669431289</v>
+        <v>0.3005296263947633</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.172168584493037</v>
+        <v>-0.0193087473139601</v>
       </c>
       <c r="C4">
-        <v>0.4469611009306131</v>
+        <v>0.2049953786970008</v>
       </c>
       <c r="D4">
-        <v>0.3068024783553724</v>
+        <v>0.1019947020594539</v>
       </c>
       <c r="E4">
-        <v>0.5538975341661782</v>
+        <v>0.3193660940980647</v>
       </c>
       <c r="F4">
-        <v>0.5498698591839245</v>
+        <v>0.3329567938172152</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.2012538732070167</v>
+        <v>-0.07226700651545802</v>
       </c>
       <c r="C5">
-        <v>0.3706701098662007</v>
+        <v>0.1675871387573901</v>
       </c>
       <c r="D5">
-        <v>0.2450590527804206</v>
+        <v>0.06404507904842406</v>
       </c>
       <c r="E5">
-        <v>0.4950343955528955</v>
+        <v>0.2530712924225584</v>
       </c>
       <c r="F5">
-        <v>0.4743537966850842</v>
+        <v>0.2543714109319102</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1962591978527491</v>
+        <v>-0.1025096706313666</v>
       </c>
       <c r="C6">
-        <v>0.5005154228308657</v>
+        <v>0.165819033310199</v>
       </c>
       <c r="D6">
-        <v>0.3060069273344895</v>
+        <v>0.06384594992382764</v>
       </c>
       <c r="E6">
-        <v>0.5531789288598126</v>
+        <v>0.252677561179911</v>
       </c>
       <c r="F6">
-        <v>0.5451699577936784</v>
+        <v>0.2434422526798966</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2173851562319015</v>
+        <v>-0.1148643701330149</v>
       </c>
       <c r="C7">
-        <v>0.5193912335752287</v>
+        <v>0.1835058106740494</v>
       </c>
       <c r="D7">
-        <v>0.3417199285034996</v>
+        <v>0.06418979330833566</v>
       </c>
       <c r="E7">
-        <v>0.5845681555674236</v>
+        <v>0.2533570470863908</v>
       </c>
       <c r="F7">
-        <v>0.575561964646486</v>
+        <v>0.2395213268272089</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1465976859772833</v>
+        <v>-0.09270844093133584</v>
       </c>
       <c r="C8">
-        <v>0.6786390806747216</v>
+        <v>0.2111731646910383</v>
       </c>
       <c r="D8">
-        <v>0.5659560571029979</v>
+        <v>0.07863255137221827</v>
       </c>
       <c r="E8">
-        <v>0.7523005098383211</v>
+        <v>0.2804149628179963</v>
       </c>
       <c r="F8">
-        <v>0.8083057655880753</v>
+        <v>0.2899055632835616</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.7439835285872217</v>
+        <v>-0.2246702250377167</v>
       </c>
       <c r="C9">
-        <v>0.7439835285872217</v>
+        <v>0.2246702250377167</v>
       </c>
       <c r="D9">
-        <v>0.7169109747095641</v>
+        <v>0.1088070602894433</v>
       </c>
       <c r="E9">
-        <v>0.8467059552817401</v>
+        <v>0.3298591521990004</v>
       </c>
       <c r="F9">
-        <v>0.4950749699295109</v>
+        <v>0.2957964256146743</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.8456720827280808</v>
+        <v>-0.09344167408882031</v>
       </c>
       <c r="C10">
-        <v>0.8456720827280808</v>
+        <v>0.09344167408882031</v>
       </c>
       <c r="D10">
-        <v>0.7151612715056499</v>
+        <v>0.008731346456521313</v>
       </c>
       <c r="E10">
-        <v>0.8456720827280808</v>
+        <v>0.09344167408882031</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01581778927454889</v>
+        <v>0.001068801475677701</v>
       </c>
       <c r="C2">
-        <v>0.1769645570152142</v>
+        <v>0.5121987664681366</v>
       </c>
       <c r="D2">
-        <v>0.06154514893109243</v>
+        <v>0.5908018752482725</v>
       </c>
       <c r="E2">
-        <v>0.2480829476830127</v>
+        <v>0.7686363738779688</v>
       </c>
       <c r="F2">
-        <v>0.2569240011290105</v>
+        <v>0.776283934891037</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02195526675411769</v>
+        <v>0.1076112683830704</v>
       </c>
       <c r="C3">
-        <v>0.2163586422281868</v>
+        <v>0.5501073581205883</v>
       </c>
       <c r="D3">
-        <v>0.08385254728376079</v>
+        <v>0.7154227106871884</v>
       </c>
       <c r="E3">
-        <v>0.2895730430888911</v>
+        <v>0.8458266434011099</v>
       </c>
       <c r="F3">
-        <v>0.3005296263947633</v>
+        <v>0.8474707421379045</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0193087473139601</v>
+        <v>0.01447167482266423</v>
       </c>
       <c r="C4">
-        <v>0.2049953786970008</v>
+        <v>0.6025716605263358</v>
       </c>
       <c r="D4">
-        <v>0.1019947020594539</v>
+        <v>0.7372352437580105</v>
       </c>
       <c r="E4">
-        <v>0.3193660940980647</v>
+        <v>0.8586240409853492</v>
       </c>
       <c r="F4">
-        <v>0.3329567938172152</v>
+        <v>0.8673987081222851</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.07226700651545802</v>
+        <v>0.107527968228121</v>
       </c>
       <c r="C5">
-        <v>0.1675871387573901</v>
+        <v>0.6082289609806715</v>
       </c>
       <c r="D5">
-        <v>0.06404507904842406</v>
+        <v>0.7759918099762468</v>
       </c>
       <c r="E5">
-        <v>0.2530712924225584</v>
+        <v>0.8809039731867753</v>
       </c>
       <c r="F5">
-        <v>0.2543714109319102</v>
+        <v>0.883568901926184</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1025096706313666</v>
+        <v>0.01941581067445748</v>
       </c>
       <c r="C6">
-        <v>0.165819033310199</v>
+        <v>0.5766303201776867</v>
       </c>
       <c r="D6">
-        <v>0.06384594992382764</v>
+        <v>0.6540589049982858</v>
       </c>
       <c r="E6">
-        <v>0.252677561179911</v>
+        <v>0.8087390833873962</v>
       </c>
       <c r="F6">
-        <v>0.2434422526798966</v>
+        <v>0.8172468464677016</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1148643701330149</v>
+        <v>0.1112754059595625</v>
       </c>
       <c r="C7">
-        <v>0.1835058106740494</v>
+        <v>0.564041488129664</v>
       </c>
       <c r="D7">
-        <v>0.06418979330833566</v>
+        <v>0.7222269590935267</v>
       </c>
       <c r="E7">
-        <v>0.2533570470863908</v>
+        <v>0.8498393725249065</v>
       </c>
       <c r="F7">
-        <v>0.2395213268272089</v>
+        <v>0.8518327715854772</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.09270844093133584</v>
+        <v>0.01597012535789634</v>
       </c>
       <c r="C8">
-        <v>0.2111731646910383</v>
+        <v>0.5344976713245601</v>
       </c>
       <c r="D8">
-        <v>0.07863255137221827</v>
+        <v>0.6191284896479551</v>
       </c>
       <c r="E8">
-        <v>0.2804149628179963</v>
+        <v>0.7868471831607171</v>
       </c>
       <c r="F8">
-        <v>0.2899055632835616</v>
+        <v>0.7955744781642835</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.2246702250377167</v>
+        <v>0.05572434282723118</v>
       </c>
       <c r="C9">
-        <v>0.2246702250377167</v>
+        <v>0.6058820781989243</v>
       </c>
       <c r="D9">
-        <v>0.1088070602894433</v>
+        <v>0.7089638270491668</v>
       </c>
       <c r="E9">
-        <v>0.3298591521990004</v>
+        <v>0.8419998972975987</v>
       </c>
       <c r="F9">
-        <v>0.2957964256146743</v>
+        <v>0.849867014019446</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.09344167408882031</v>
+        <v>0.06564388546255764</v>
       </c>
       <c r="C10">
-        <v>0.09344167408882031</v>
+        <v>0.6068818695593868</v>
       </c>
       <c r="D10">
-        <v>0.008731346456521313</v>
+        <v>0.7068678503580751</v>
       </c>
       <c r="E10">
-        <v>0.09344167408882031</v>
+        <v>0.8407543341298188</v>
+      </c>
+      <c r="F10">
+        <v>0.8481074928832305</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.03898798267175772</v>
+      </c>
+      <c r="C11">
+        <v>0.5674245104323993</v>
+      </c>
+      <c r="D11">
+        <v>0.5443824653879992</v>
+      </c>
+      <c r="E11">
+        <v>0.7378227872517893</v>
+      </c>
+      <c r="F11">
+        <v>0.7457231047781384</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.001068801475677701</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="C2">
-        <v>0.5121987664681366</v>
+        <v>0.469047619047619</v>
       </c>
       <c r="D2">
-        <v>0.5908018752482725</v>
+        <v>0.5435714285714285</v>
       </c>
       <c r="E2">
-        <v>0.7686363738779688</v>
+        <v>0.7372729674763808</v>
       </c>
       <c r="F2">
-        <v>0.776283934891037</v>
+        <v>0.7343449363085427</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1076112683830704</v>
+        <v>0.006862445399837091</v>
       </c>
       <c r="C3">
-        <v>0.5501073581205883</v>
+        <v>0.6039302007301544</v>
       </c>
       <c r="D3">
-        <v>0.7154227106871884</v>
+        <v>0.7234397629857844</v>
       </c>
       <c r="E3">
-        <v>0.8458266434011099</v>
+        <v>0.8505526221144606</v>
       </c>
       <c r="F3">
-        <v>0.8474707421379045</v>
+        <v>0.8610908701029418</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01447167482266423</v>
+        <v>0.1524205693483774</v>
       </c>
       <c r="C4">
-        <v>0.6025716605263358</v>
+        <v>0.6423595844912023</v>
       </c>
       <c r="D4">
-        <v>0.7372352437580105</v>
+        <v>0.8775854164232644</v>
       </c>
       <c r="E4">
-        <v>0.8586240409853492</v>
+        <v>0.9367952905642003</v>
       </c>
       <c r="F4">
-        <v>0.8673987081222851</v>
+        <v>0.9360875405385815</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.107527968228121</v>
+        <v>0.04980756042726093</v>
       </c>
       <c r="C5">
-        <v>0.6082289609806715</v>
+        <v>0.7196857601028602</v>
       </c>
       <c r="D5">
-        <v>0.7759918099762468</v>
+        <v>0.9118160530585012</v>
       </c>
       <c r="E5">
-        <v>0.8809039731867753</v>
+        <v>0.9548905974290988</v>
       </c>
       <c r="F5">
-        <v>0.883568901926184</v>
+        <v>0.9660564865707858</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01941581067445748</v>
+        <v>0.1685415784894023</v>
       </c>
       <c r="C6">
-        <v>0.5766303201776867</v>
+        <v>0.7315745272820626</v>
       </c>
       <c r="D6">
-        <v>0.6540589049982858</v>
+        <v>0.9669495865848617</v>
       </c>
       <c r="E6">
-        <v>0.8087390833873962</v>
+        <v>0.983335947977527</v>
       </c>
       <c r="F6">
-        <v>0.8172468464677016</v>
+        <v>0.9817888564550711</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1112754059595625</v>
+        <v>0.05236864345981531</v>
       </c>
       <c r="C7">
-        <v>0.564041488129664</v>
+        <v>0.6876603977094401</v>
       </c>
       <c r="D7">
-        <v>0.7222269590935267</v>
+        <v>0.8135759198832745</v>
       </c>
       <c r="E7">
-        <v>0.8498393725249065</v>
+        <v>0.9019844343907907</v>
       </c>
       <c r="F7">
-        <v>0.8518327715854772</v>
+        <v>0.9128836707474132</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01597012535789634</v>
+        <v>0.1715962988235919</v>
       </c>
       <c r="C8">
-        <v>0.5344976713245601</v>
+        <v>0.6741482612662726</v>
       </c>
       <c r="D8">
-        <v>0.6191284896479551</v>
+        <v>0.9067807233488873</v>
       </c>
       <c r="E8">
-        <v>0.7868471831607171</v>
+        <v>0.9522503469933142</v>
       </c>
       <c r="F8">
-        <v>0.7955744781642835</v>
+        <v>0.9499485040004092</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05572434282723118</v>
+        <v>0.1127370711831118</v>
       </c>
       <c r="C9">
-        <v>0.6058820781989243</v>
+        <v>0.5725331809908775</v>
       </c>
       <c r="D9">
-        <v>0.7089638270491668</v>
+        <v>0.6431051428235416</v>
       </c>
       <c r="E9">
-        <v>0.8419998972975987</v>
+        <v>0.801938365975554</v>
       </c>
       <c r="F9">
-        <v>0.849867014019446</v>
+        <v>0.805565974699134</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.06564388546255764</v>
+        <v>0.1706140055022492</v>
       </c>
       <c r="C10">
-        <v>0.6068818695593868</v>
+        <v>0.666628778494778</v>
       </c>
       <c r="D10">
-        <v>0.7068678503580751</v>
+        <v>0.750579926290491</v>
       </c>
       <c r="E10">
-        <v>0.8407543341298188</v>
+        <v>0.8663601596856189</v>
       </c>
       <c r="F10">
-        <v>0.8481074928832305</v>
+        <v>0.8621679294376572</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03898798267175772</v>
+        <v>0.2039437044841572</v>
       </c>
       <c r="C11">
-        <v>0.5674245104323993</v>
+        <v>0.6558282946641647</v>
       </c>
       <c r="D11">
-        <v>0.5443824653879992</v>
+        <v>0.7409461765722168</v>
       </c>
       <c r="E11">
-        <v>0.7378227872517893</v>
+        <v>0.8607823049832152</v>
       </c>
       <c r="F11">
-        <v>0.7457231047781384</v>
+        <v>0.8492396173402222</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.130952380952381</v>
+        <v>0.103921568627451</v>
       </c>
       <c r="C2">
-        <v>0.469047619047619</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
-        <v>0.5435714285714285</v>
+        <v>0.9849019607843137</v>
       </c>
       <c r="E2">
-        <v>0.7372729674763808</v>
+        <v>0.9924222693915699</v>
       </c>
       <c r="F2">
-        <v>0.7343449363085427</v>
+        <v>0.9967869951627029</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.006862445399837091</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="C3">
-        <v>0.6039302007301544</v>
+        <v>0.704</v>
       </c>
       <c r="D3">
-        <v>0.7234397629857844</v>
+        <v>0.9964</v>
       </c>
       <c r="E3">
-        <v>0.8505526221144606</v>
+        <v>0.9981983770774224</v>
       </c>
       <c r="F3">
-        <v>0.8610908701029418</v>
+        <v>1.008203089356383</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1524205693483774</v>
+        <v>0.1081632653061224</v>
       </c>
       <c r="C4">
-        <v>0.6423595844912023</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="D4">
-        <v>0.8775854164232644</v>
+        <v>0.9793877551020409</v>
       </c>
       <c r="E4">
-        <v>0.9367952905642003</v>
+        <v>0.9896402149781712</v>
       </c>
       <c r="F4">
-        <v>0.9360875405385815</v>
+        <v>0.99390574978505</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04980756042726093</v>
+        <v>0.006249999999999996</v>
       </c>
       <c r="C5">
-        <v>0.7196857601028602</v>
+        <v>0.6687500000000001</v>
       </c>
       <c r="D5">
-        <v>0.9118160530585012</v>
+        <v>0.8072916666666666</v>
       </c>
       <c r="E5">
-        <v>0.9548905974290988</v>
+        <v>0.898494110535326</v>
       </c>
       <c r="F5">
-        <v>0.9660564865707858</v>
+        <v>0.9079802814430288</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1685415784894023</v>
+        <v>0.0936170212765957</v>
       </c>
       <c r="C6">
-        <v>0.7315745272820626</v>
+        <v>0.7234042553191488</v>
       </c>
       <c r="D6">
-        <v>0.9669495865848617</v>
+        <v>0.9825531914893616</v>
       </c>
       <c r="E6">
-        <v>0.983335947977527</v>
+        <v>0.9912382112738398</v>
       </c>
       <c r="F6">
-        <v>0.9817888564550711</v>
+        <v>0.9974760006525926</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05236864345981531</v>
+        <v>0.004347826086956521</v>
       </c>
       <c r="C7">
-        <v>0.6876603977094401</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="D7">
-        <v>0.8135759198832745</v>
+        <v>0.9669565217391302</v>
       </c>
       <c r="E7">
-        <v>0.9019844343907907</v>
+        <v>0.9833394743114557</v>
       </c>
       <c r="F7">
-        <v>0.9128836707474132</v>
+        <v>0.9941957155273536</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1715962988235919</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.6741482612662726</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="D8">
-        <v>0.9067807233488873</v>
+        <v>0.918</v>
       </c>
       <c r="E8">
-        <v>0.9522503469933142</v>
+        <v>0.9581231653602788</v>
       </c>
       <c r="F8">
-        <v>0.9499485040004092</v>
+        <v>0.9636578042211683</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1127370711831118</v>
+        <v>0.01136363636363638</v>
       </c>
       <c r="C9">
-        <v>0.5725331809908775</v>
+        <v>0.7522727272727273</v>
       </c>
       <c r="D9">
-        <v>0.6431051428235416</v>
+        <v>1.020681818181818</v>
       </c>
       <c r="E9">
-        <v>0.801938365975554</v>
+        <v>1.010287987744989</v>
       </c>
       <c r="F9">
-        <v>0.805565974699134</v>
+        <v>1.021903356166623</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1706140055022492</v>
+        <v>0.04186046511627906</v>
       </c>
       <c r="C10">
-        <v>0.666628778494778</v>
+        <v>0.7627906976744185</v>
       </c>
       <c r="D10">
-        <v>0.750579926290491</v>
+        <v>0.9251162790697675</v>
       </c>
       <c r="E10">
-        <v>0.8663601596856189</v>
+        <v>0.9618296517937921</v>
       </c>
       <c r="F10">
-        <v>0.8621679294376572</v>
+        <v>0.9722905107061892</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2039437044841572</v>
+        <v>0.05238095238095236</v>
       </c>
       <c r="C11">
-        <v>0.6558282946641647</v>
+        <v>0.7</v>
       </c>
       <c r="D11">
-        <v>0.7409461765722168</v>
+        <v>0.8742857142857141</v>
       </c>
       <c r="E11">
-        <v>0.8607823049832152</v>
+        <v>0.9350324669687754</v>
       </c>
       <c r="F11">
-        <v>0.8492396173402222</v>
+        <v>0.9448804532044524</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.004347826086956521</v>
+        <v>-0.00789473684210527</v>
       </c>
       <c r="C7">
-        <v>0.7304347826086957</v>
+        <v>0.7184210526315791</v>
       </c>
       <c r="D7">
-        <v>0.9669565217391302</v>
+        <v>0.9828947368421049</v>
       </c>
       <c r="E7">
-        <v>0.9833394743114557</v>
+        <v>0.9914104784810905</v>
       </c>
       <c r="F7">
-        <v>0.9941957155273536</v>
+        <v>1.004686741267973</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.01891891891891893</v>
       </c>
       <c r="C8">
-        <v>0.7444444444444445</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="D8">
-        <v>0.918</v>
+        <v>0.8883783783783785</v>
       </c>
       <c r="E8">
-        <v>0.9581231653602788</v>
+        <v>0.9425382636149996</v>
       </c>
       <c r="F8">
-        <v>0.9636578042211683</v>
+        <v>0.9553468939017323</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01136363636363638</v>
+        <v>-0.08499999999999999</v>
       </c>
       <c r="C9">
-        <v>0.7522727272727273</v>
+        <v>0.725</v>
       </c>
       <c r="D9">
-        <v>1.020681818181818</v>
+        <v>1.0145</v>
       </c>
       <c r="E9">
-        <v>1.010287987744989</v>
+        <v>1.007223907579641</v>
       </c>
       <c r="F9">
-        <v>1.021903356166623</v>
+        <v>1.02970358535076</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.04186046511627906</v>
+        <v>-0.08461538461538459</v>
       </c>
       <c r="C10">
-        <v>0.7627906976744185</v>
+        <v>0.7769230769230769</v>
       </c>
       <c r="D10">
-        <v>0.9251162790697675</v>
+        <v>1.114615384615385</v>
       </c>
       <c r="E10">
-        <v>0.9618296517937921</v>
+        <v>1.055753467725958</v>
       </c>
       <c r="F10">
-        <v>0.9722905107061892</v>
+        <v>1.095328074023299</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.05238095238095236</v>
+        <v>-0.26</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="D11">
-        <v>0.8742857142857141</v>
+        <v>0.3139999999999999</v>
       </c>
       <c r="E11">
-        <v>0.9350324669687754</v>
+        <v>0.5603570290448759</v>
       </c>
       <c r="F11">
-        <v>0.9448804532044524</v>
+        <v>0.5549774770204643</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
